--- a/biology/Botanique/Senecio_flaccidus/Senecio_flaccidus.xlsx
+++ b/biology/Botanique/Senecio_flaccidus/Senecio_flaccidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senecio flaccidus est une espèce de plante à fleurs de la famille des Composées (Asteraceae).
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante des touffes de 30 à 90 cm, mais pouvant dépasser 1 m. Les parties les plus âgées sont couvertes de poils laineux leur conférant une teinte grisâtre. Les feuilles mesurent entre 2,5 et 12,5 cm de longueur ; elles sont profondément découpées en lobes très étroits[1].
-Appareil reproducteur
-La floraison a lieu entre avril et septembre.
-L'inflorescence est une grappe de capitules jaunes. Chaque capitule mesure environ 3 cm de diamètre à maturité. Les fleurons ligulés mesurent 1,3 cm de long ; les fleurons tubulaires composent le centre relativement étroit et d'un jaune un peu plus sombre[1].
-Les fruits sont des akènes surmontés d'un pappus constitué d'une petite touffe de soies fines et blanches.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante des touffes de 30 à 90 cm, mais pouvant dépasser 1 m. Les parties les plus âgées sont couvertes de poils laineux leur conférant une teinte grisâtre. Les feuilles mesurent entre 2,5 et 12,5 cm de longueur ; elles sont profondément découpées en lobes très étroits.
 </t>
         </is>
       </c>
@@ -544,12 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante pousse dans le sud-ouest des États-Unis et au Mexique (voir carte de répartition), dans les plaines arides et les déserts caillouteux, mais aussi au sein de l'association végétale Pinus-Juniperus, généralement située plus en altitude.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre avril et septembre.
+L'inflorescence est une grappe de capitules jaunes. Chaque capitule mesure environ 3 cm de diamètre à maturité. Les fleurons ligulés mesurent 1,3 cm de long ; les fleurons tubulaires composent le centre relativement étroit et d'un jaune un peu plus sombre.
+Les fruits sont des akènes surmontés d'un pappus constitué d'une petite touffe de soies fines et blanches.
 </t>
         </is>
       </c>
@@ -575,12 +596,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rôle écologique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Senecio flaccidus est une des plantes sauvages les plus toxiques pour le bétail de l'Amérique du Nord, surtout les jeunes pousses[1]. Étant normalement évitée par les herbivores, elle a tendance à envahir les zones surpâturées.
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse dans le sud-ouest des États-Unis et au Mexique (voir carte de répartition), dans les plaines arides et les déserts caillouteux, mais aussi au sein de l'association végétale Pinus-Juniperus, généralement située plus en altitude.
 </t>
         </is>
       </c>
@@ -606,10 +629,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Rôle écologique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Senecio flaccidus est une des plantes sauvages les plus toxiques pour le bétail de l'Amérique du Nord, surtout les jeunes pousses. Étant normalement évitée par les herbivores, elle a tendance à envahir les zones surpâturées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Senecio_flaccidus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Senecio_flaccidus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Senecio flaccidus et l'homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Amérindiens du sud-ouest de l'Amérique du Nord utilisaient autrefois cette plante à des fins médicinales.
 </t>
